--- a/import exp file/alibaba_import.xlsx
+++ b/import exp file/alibaba_import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ColdFusion2021\cfusion\wwwroot\alibaba\import exp file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD057F63-769E-4746-BDA4-8CC5456A6ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F50825-BD9E-4545-9786-5E3D81CB45FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="3840" windowWidth="25110" windowHeight="10545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="210" yWindow="3135" windowWidth="25110" windowHeight="10545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <t>canlı cinsiyeti</t>
   </si>
   <si>
-    <t>muayene tarihi</t>
+    <t>muayene tarihi(GG.AA.YYYY)</t>
   </si>
 </sst>
 </file>
@@ -361,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -372,7 +372,7 @@
     <col min="2" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -391,12 +391,9 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
